--- a/Excel Data/TDR/TDRMonthlyProfitMenu.xlsx
+++ b/Excel Data/TDR/TDRMonthlyProfitMenu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TDRIssuanceMaturityLCY_IBG" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="18">
   <si>
     <t>CUSTOMER.ID</t>
   </si>
@@ -56,6 +56,27 @@
   </si>
   <si>
     <t>LD1430416803</t>
+  </si>
+  <si>
+    <t>DRAWDOWN.ACCOUNT</t>
+  </si>
+  <si>
+    <t>PRIN.LIQ.ACCT</t>
+  </si>
+  <si>
+    <t>INT.LIQ.ACCT</t>
+  </si>
+  <si>
+    <t>5000000522</t>
+  </si>
+  <si>
+    <t>5000000529</t>
+  </si>
+  <si>
+    <t>5000000531</t>
+  </si>
+  <si>
+    <t>5000000534</t>
   </si>
 </sst>
 </file>
@@ -91,8 +112,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -373,66 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>11871120</v>
-      </c>
-      <c r="B2">
-        <v>11745297</v>
-      </c>
-      <c r="C2">
-        <v>21022</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2">
-        <v>100000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F1" sqref="F1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,9 +408,12 @@
     <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -460,10 +429,19 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>12105488</v>
+        <v>11871120</v>
       </c>
       <c r="B2">
         <v>11745297</v>
@@ -472,10 +450,19 @@
         <v>21022</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>100000</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -483,23 +470,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -507,36 +498,48 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>12105488</v>
+        <v>11871146</v>
       </c>
       <c r="B2">
         <v>11745297</v>
       </c>
       <c r="C2">
-        <v>20230703</v>
-      </c>
-      <c r="D2">
         <v>21022</v>
       </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2">
-        <v>100</v>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>100000</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -544,12 +547,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="G2" sqref="G1:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,9 +563,12 @@
     <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -581,10 +587,19 @@
       <c r="F1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>12105488</v>
+        <v>14337500</v>
       </c>
       <c r="B2">
         <v>11745297</v>
@@ -600,6 +615,15 @@
       </c>
       <c r="F2">
         <v>100</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -607,11 +631,95 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>11871196</v>
+      </c>
+      <c r="B2">
+        <v>11745297</v>
+      </c>
+      <c r="C2">
+        <v>20230703</v>
+      </c>
+      <c r="D2">
+        <v>21022</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
